--- a/VersionRecords/Version DC/定时器/新增定时器 (PS组).xlsx
+++ b/VersionRecords/Version DC/定时器/新增定时器 (PS组).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianwenbo/Desktop/Mogo_Doc/VersionRecords/Version DC/定时器/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version DC\定时器\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="job任务模板" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>上线版本</t>
   </si>
@@ -148,6 +148,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>"}</t>
@@ -243,12 +244,24 @@
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcInitTask"}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>每日凌晨1点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日凌晨1点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次执行，上线后由开发通知执行一次。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +374,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -459,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +530,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -525,8 +548,8 @@
     <cellStyle name="常规 4 2" xfId="10"/>
     <cellStyle name="常规 5" xfId="11"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="个性色4" xfId="3" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -857,31 +880,31 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="44.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="44.875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" customWidth="1"/>
-    <col min="13" max="13" width="79.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
+    <col min="13" max="13" width="79.375" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
-    <col min="17" max="17" width="29.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="29.125" customWidth="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="77.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -980,8 +1003,8 @@
       <c r="N2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>32</v>
+      <c r="O2" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>19</v>
@@ -991,7 +1014,7 @@
       </c>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="77.25" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1034,8 +1057,8 @@
       <c r="N3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>32</v>
+      <c r="O3" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>19</v>
@@ -1045,7 +1068,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="77.25" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>27</v>
       </c>
@@ -1088,8 +1111,8 @@
       <c r="N4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>32</v>
+      <c r="O4" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>19</v>
@@ -1099,7 +1122,7 @@
       </c>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="77.25" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1176,7 @@
       </c>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="77.25" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1196,8 +1219,8 @@
       <c r="N6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>32</v>
+      <c r="O6" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>19</v>
